--- a/DragPrediction/NL2VP DragX/0.5T/n/9/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.5T/n/9/test.xlsx
@@ -350,7 +350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>9.8827949999999998E-3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>0.54896794481615707</v>
+        <v>0.66425121322754999</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E137)</f>
-        <v>11.491059556278227</v>
+        <v>13.904182063096643</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">A3*$E$1</f>
-        <v>0.46933190081780579</v>
+        <v>0.56789159998954497</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.21434018153578516</v>
+        <v>0.2593516196583</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.41936363169989255</v>
+        <v>0.50742999435686997</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.22490644940222729</v>
+        <v>0.27213680377669502</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.24162389955825619</v>
+        <v>0.29236491846549001</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.40392575030078931</v>
+        <v>0.48875015786395504</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.27235580643221902</v>
+        <v>0.32955052578298499</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.41560255845926036</v>
+        <v>0.502879095735705</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.31649459865679341</v>
+        <v>0.38295846437472003</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.1336107247008719</v>
+        <v>0.16166897688805501</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.14005092565481406</v>
+        <v>0.16946162004232498</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.37563910827300001</v>
+        <v>0.45452332101032999</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.16614215786274794</v>
+        <v>0.20103201101392501</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.37994933004406611</v>
+        <v>0.45973868935331996</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.17513171971433059</v>
+        <v>0.21190938085434</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.36999666940073556</v>
+        <v>0.44769596997488997</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.35763099776036783</v>
+        <v>0.43273350729004501</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.11792050532530166</v>
+        <v>0.142683811443615</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-6.3519827152685952E-3</v>
+        <v>-7.6858990854749999E-3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-2.8143096472314051E-4</v>
+        <v>-3.4053146731499999E-4</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0.22133825401607851</v>
+        <v>0.26781928735945498</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>0.14567052791978927</v>
+        <v>0.17626133878294498</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,7 +806,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-4.0679544443801658E-3</v>
+        <v>-4.9222248776999997E-3</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -824,7 +824,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>0.20724873706173969</v>
+        <v>0.25077097184470498</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>0.14877036049892975</v>
+        <v>0.18001213620370499</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,7 +860,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>-6.4613877061983479E-3</v>
+        <v>-7.8182791244999997E-3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -878,7 +878,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>6.4277192288851245E-2</v>
+        <v>7.7775402669509996E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>-2.2062106530024793E-2</v>
+        <v>-2.6695148901329999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,7 +914,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>3.661217806656198E-2</v>
+        <v>4.4300735460539996E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -932,7 +932,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>0.10421221106238843</v>
+        <v>0.12609677538549</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +950,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-1.029603468018595E-2</v>
+        <v>-1.2458201963024999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>-1.3043966248933885E-2</v>
+        <v>-1.5783199161209998E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,7 +986,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>-1.3555666337157025E-2</v>
+        <v>-1.6402356267960001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>-1.4558549504479339E-2</v>
+        <v>-1.7615844900419998E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>-1.284631851653306E-2</v>
+        <v>-1.5544045405005001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>-3.1209703258016533E-3</v>
+        <v>-3.7763740942200002E-3</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>-3.131232097403306E-2</v>
+        <v>-3.7887908378579999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>9.3148201534710745E-4</v>
+        <v>1.1270932385699999E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>-7.6052027972603317E-3</v>
+        <v>-9.2022953846850001E-3</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>7.3707812663404967E-2</v>
+        <v>8.9186453322720002E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>7.6532282804008256E-2</v>
+        <v>9.2604062192849987E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>8.0389660206495878E-2</v>
+        <v>9.7271488849860005E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>8.2888471832851252E-2</v>
+        <v>0.10029505091775</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>8.3340679128694223E-2</v>
+        <v>0.10084222174572</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>8.0933132255504137E-2</v>
+        <v>9.7929090029160004E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>5.3814220049157029E-2</v>
+        <v>6.5115206259480002E-2</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>-2.710769809268182E-2</v>
+        <v>-3.2800314692144998E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>6.223792246239669E-3</v>
+        <v>7.5307886179499994E-3</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>3.2251888912561985E-3</v>
+        <v>3.9024785584199999E-3</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>2.4347694812355374E-3</v>
+        <v>2.946071072295E-3</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>-3.2840772812975207E-3</v>
+        <v>-3.9737335103699999E-3</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>-1.0284902242512396E-2</v>
+        <v>-1.2444731713439999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>-2.3355364183165288E-2</v>
+        <v>-2.825999066163E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>-3.2194086813210746E-2</v>
+        <v>-3.8954845043984998E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>-5.5532813596859507E-2</v>
+        <v>-6.7194704452199994E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>-5.5806256649590914E-2</v>
+        <v>-6.7525570546004998E-2</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>-5.8138669777983473E-2</v>
+        <v>-7.0347790431359997E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>-5.8564748924070251E-2</v>
+        <v>-7.0863346198124996E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>-6.2291477410177688E-2</v>
+        <v>-7.5372687666314997E-2</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>-6.8116355945181825E-2</v>
+        <v>-8.2420790693670004E-2</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>-0.12323094762635951</v>
+        <v>-0.14910944662789499</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>-9.4947262269471075E-2</v>
+        <v>-0.11488618734605999</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>-9.170801694003719E-2</v>
+        <v>-0.11096670049744499</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>-8.9770384717698354E-2</v>
+        <v>-0.108622165508415</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" si="1">A67*$E$1</f>
-        <v>-7.9424225481384295E-2</v>
+        <v>-9.6103312832474988E-2</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E68">
         <f t="shared" si="1"/>
-        <v>-7.1905623738161159E-2</v>
+        <v>-8.7005804723174998E-2</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="1"/>
-        <v>-5.4366513105272726E-2</v>
+        <v>-6.5783480857379992E-2</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="1"/>
-        <v>1.6753812307549586E-2</v>
+        <v>2.0272112892135E-2</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="E71">
         <f t="shared" si="1"/>
-        <v>2.4632278470359505E-2</v>
+        <v>2.9805056949135E-2</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
-        <v>1.7869980075409093E-2</v>
+        <v>2.1622675891245002E-2</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
-        <v>1.7740564466504134E-2</v>
+        <v>2.1466083004470001E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
-        <v>1.6818801894173556E-2</v>
+        <v>2.0350750291950003E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E75">
         <f t="shared" si="1"/>
-        <v>1.5822706001764462E-2</v>
+        <v>1.9145474262134997E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
-        <v>1.4435586298921487E-2</v>
+        <v>1.7467059421694998E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
-        <v>3.4028529587590908E-2</v>
+        <v>4.1174520800985E-2</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
-        <v>6.2154008548487606E-2</v>
+        <v>7.520635034367E-2</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="E79">
         <f t="shared" si="1"/>
-        <v>3.1901931790772727E-2</v>
+        <v>3.8601337466835001E-2</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
-        <v>7.0728403166479339E-2</v>
+        <v>8.5581367831440006E-2</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
-        <v>6.959829330683058E-2</v>
+        <v>8.4213934901264997E-2</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E82">
         <f t="shared" si="1"/>
-        <v>2.6248090950061982E-2</v>
+        <v>3.1760190049574998E-2</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E83">
         <f t="shared" si="1"/>
-        <v>7.4913039932652886E-2</v>
+        <v>9.0644778318509991E-2</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="E84">
         <f t="shared" si="1"/>
-        <v>2.6781835388454543E-2</v>
+        <v>3.2406020820029996E-2</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="E85">
         <f t="shared" si="1"/>
-        <v>7.7962388581301653E-2</v>
+        <v>9.4334490183375003E-2</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="E86">
         <f t="shared" si="1"/>
-        <v>7.5721991625198354E-2</v>
+        <v>9.1623609866489999E-2</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="E87">
         <f t="shared" si="1"/>
-        <v>2.555846788144215E-2</v>
+        <v>3.0925746136544998E-2</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="E88">
         <f t="shared" si="1"/>
-        <v>1.9853350853119834E-2</v>
+        <v>2.4022554532275E-2</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="E89">
         <f t="shared" si="1"/>
-        <v>1.9323502359533059E-2</v>
+        <v>2.3381437855034999E-2</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E90">
         <f t="shared" si="1"/>
-        <v>7.9997754295351248E-2</v>
+        <v>9.6797282697375003E-2</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="E91">
         <f t="shared" si="1"/>
-        <v>9.29917920105372E-2</v>
+        <v>0.11252006833275001</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E92">
         <f t="shared" si="1"/>
-        <v>7.9963287026838845E-2</v>
+        <v>9.6755577302474999E-2</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="E93">
         <f t="shared" si="1"/>
-        <v>8.1181721303950419E-2</v>
+        <v>9.8229882777779998E-2</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
-        <v>8.1590656659371902E-2</v>
+        <v>9.8724694557839998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="E95">
         <f t="shared" si="1"/>
-        <v>8.3631739692842974E-2</v>
+        <v>0.10119440502834</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="E96">
         <f t="shared" si="1"/>
-        <v>8.5291698046078515E-2</v>
+        <v>0.10320295463575499</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="E97">
         <f t="shared" si="1"/>
-        <v>8.5154833586727277E-2</v>
+        <v>0.10303734863993999</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E98">
         <f t="shared" si="1"/>
-        <v>8.4512615263710761E-2</v>
+        <v>0.10226026446909001</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="E99">
         <f t="shared" si="1"/>
-        <v>7.194275364400414E-2</v>
+        <v>8.7050731909244991E-2</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="E100">
         <f t="shared" si="1"/>
-        <v>7.0819030846909103E-2</v>
+        <v>8.569102732476E-2</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
-        <v>7.5111659609355383E-2</v>
+        <v>9.0885108127319994E-2</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="E102">
         <f t="shared" si="1"/>
-        <v>0.14266561101064462</v>
+        <v>0.17262538932287999</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="E103">
         <f t="shared" si="1"/>
-        <v>7.9051962646252069E-2</v>
+        <v>9.5652874801965007E-2</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
-        <v>8.0205979068681821E-2</v>
+        <v>9.7049234673105E-2</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="E105">
         <f t="shared" si="1"/>
-        <v>8.433285457350001E-2</v>
+        <v>0.10204275403393501</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
-        <v>8.067187526073967E-2</v>
+        <v>9.7612969065494992E-2</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
-        <v>8.0412725506561991E-2</v>
+        <v>9.7299397862940007E-2</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="E108">
         <f t="shared" si="1"/>
-        <v>8.9913570898809927E-2</v>
+        <v>0.10879542078756001</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="E109">
         <f t="shared" si="1"/>
-        <v>0.13206936805523556</v>
+        <v>0.15980393534683501</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="E110">
         <f t="shared" si="1"/>
-        <v>9.3435488668041328E-2</v>
+        <v>0.11305694128832999</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="E111">
         <f t="shared" si="1"/>
-        <v>0.12038779001884711</v>
+        <v>0.14566922592280501</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="E112">
         <f t="shared" si="1"/>
-        <v>0.11163940103566117</v>
+        <v>0.13508367525315002</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="E113">
         <f t="shared" si="1"/>
-        <v>9.1091836923185954E-2</v>
+        <v>0.110221122677055</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E114">
         <f t="shared" si="1"/>
-        <v>0.10208112108602481</v>
+        <v>0.12351815651409001</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="E115">
         <f t="shared" si="1"/>
-        <v>8.8001854468648763E-2</v>
+        <v>0.106482243907065</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="E116">
         <f t="shared" si="1"/>
-        <v>0.12038034116840082</v>
+        <v>0.14566021281376498</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="E117">
         <f t="shared" si="1"/>
-        <v>8.4394601623252075E-2</v>
+        <v>0.102117467964135</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="E118">
         <f t="shared" si="1"/>
-        <v>8.1513636199165296E-2</v>
+        <v>9.8631499800989994E-2</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="E119">
         <f t="shared" si="1"/>
-        <v>0.10682453598205786</v>
+        <v>0.12925768853829001</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="E120">
         <f t="shared" si="1"/>
-        <v>0.11509212290469421</v>
+        <v>0.13926146871467998</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="E121">
         <f t="shared" si="1"/>
-        <v>0.11651821839079339</v>
+        <v>0.14098704425285999</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="E122">
         <f t="shared" si="1"/>
-        <v>0.10138731620662811</v>
+        <v>0.12267865261002001</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="E123">
         <f t="shared" si="1"/>
-        <v>9.6263830250652896E-2</v>
+        <v>0.11647923460328999</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="E124">
         <f t="shared" si="1"/>
-        <v>0.11644124693618182</v>
+        <v>0.14089390879277999</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="E125">
         <f t="shared" si="1"/>
-        <v>9.2737722503045461E-2</v>
+        <v>0.112212644228685</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="E126">
         <f t="shared" si="1"/>
-        <v>0.11823415746876446</v>
+        <v>0.14306333053720499</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="E127">
         <f t="shared" si="1"/>
-        <v>0.11736462669314877</v>
+        <v>0.14201119829871001</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="E128">
         <f t="shared" si="1"/>
-        <v>0.11562587551068595</v>
+        <v>0.13990730936793</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="E129">
         <f t="shared" si="1"/>
-        <v>0.115342100445</v>
+        <v>0.13956394153845</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E130">
         <f t="shared" si="1"/>
-        <v>0.11357555492254959</v>
+        <v>0.137426421456285</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E137" si="2">A131*$E$1</f>
-        <v>0.11888053309976034</v>
+        <v>0.14384544505070998</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="E132">
         <f t="shared" si="2"/>
-        <v>0.11661230096567356</v>
+        <v>0.141100884168465</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="E133">
         <f t="shared" si="2"/>
-        <v>0.11391578443372315</v>
+        <v>0.13783809916480499</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="E134">
         <f t="shared" si="2"/>
-        <v>0.11431797335222728</v>
+        <v>0.13832474775619499</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="E135">
         <f t="shared" si="2"/>
-        <v>0.10871959050990496</v>
+        <v>0.131550704516985</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="E136">
         <f t="shared" si="2"/>
-        <v>0.1063374857081405</v>
+        <v>0.12866835770685001</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="E137">
         <f t="shared" si="2"/>
-        <v>0.1036389599467934</v>
+        <v>0.12540314153561999</v>
       </c>
     </row>
   </sheetData>
@@ -2830,5 +2830,6 @@
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>